--- a/biology/Médecine/Sciensano/Sciensano.xlsx
+++ b/biology/Médecine/Sciensano/Sciensano.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Sciensano est un centre de recherche qui est l'institut national de santé publique en Belgique. À ce titre, c'est une institution scientifique qui travaille sous l'autorité du Ministre fédéral de la Santé publique et du ministre de l'Agriculture.
@@ -512,9 +524,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sciensano est né en 2018 à la suite de la fusion du Centre d’Étude et de Recherches Vétérinaires et Agrochimiques (CERVA) et de l'ancien Institut scientifique de santé publique (ISP) dans une visée orientée par l'initiative intégrative du mouvement One Health[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sciensano est né en 2018 à la suite de la fusion du Centre d’Étude et de Recherches Vétérinaires et Agrochimiques (CERVA) et de l'ancien Institut scientifique de santé publique (ISP) dans une visée orientée par l'initiative intégrative du mouvement One Health,.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Depuis janvier 2020, Sciensano est dirigé par Christian Léonard[3] et compte plus de 700 salariés[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Depuis janvier 2020, Sciensano est dirigé par Christian Léonard et compte plus de 700 salariés.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Activité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>L'activité scientifique de Sciensano se développe autour de six domaines d'actions : 
 la Santé et l'environnement ;
